--- a/GA_bNa_bCa_NaK/Best_ind2.xlsx
+++ b/GA_bNa_bCa_NaK/Best_ind2.xlsx
@@ -492,37 +492,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3126696395537804</v>
+        <v>0.2320698147612039</v>
       </c>
       <c r="B2" t="n">
-        <v>1.233435416730013</v>
+        <v>2.05732584243093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7572520112780701</v>
+        <v>0.5466048149976465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6458573347879463</v>
+        <v>1.129936071471187</v>
       </c>
       <c r="E2" t="n">
-        <v>1.322070650335846</v>
+        <v>2.253058288672486</v>
       </c>
       <c r="F2" t="n">
-        <v>5.673937615339051</v>
+        <v>3.312807536447605</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5793286990232193</v>
+        <v>3.163770665798495</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4396667745227731</v>
+        <v>0.2165799971591207</v>
       </c>
       <c r="I2" t="n">
-        <v>7.135338603710006</v>
+        <v>0.3837061346479222</v>
       </c>
       <c r="J2" t="n">
-        <v>1.338255802892341</v>
+        <v>0.4810308630406821</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4058069211855176</v>
+        <v>0.1666790382543955</v>
       </c>
     </row>
   </sheetData>
